--- a/data/trans_dic/P36$otros-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36$otros-Provincia-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01343690273259955</v>
+        <v>0.01357801758252038</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.005696242410500514</v>
+        <v>0.005755836992514834</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01138225817454773</v>
+        <v>0.01248741029952214</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.003926802394228842</v>
+        <v>0.00403083793726075</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.003247743664068936</v>
+        <v>0.0008883183602154571</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01699903002337419</v>
+        <v>0.01665288011783404</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01120989286512983</v>
+        <v>0.01222305458063985</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.005590563625953602</v>
+        <v>0.0064337915548771</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01910829906405493</v>
+        <v>0.01787247318913604</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05251821835359519</v>
+        <v>0.05092080127036308</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03466397338753296</v>
+        <v>0.03603521189402483</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05160978642516972</v>
+        <v>0.05646317772493221</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03501973541494436</v>
+        <v>0.03863812493118365</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02959468347018395</v>
+        <v>0.02957297550257419</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05916426902713112</v>
+        <v>0.05646841377084285</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03666160687827705</v>
+        <v>0.03581603080051159</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02586508728650988</v>
+        <v>0.02693451380028461</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05003701945129995</v>
+        <v>0.04853572706589594</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01474214885184132</v>
+        <v>0.01649101679547496</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.006473128000494129</v>
+        <v>0.006066793159670738</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.007537079526561037</v>
+        <v>0.007801235174467708</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.001876203914015255</v>
+        <v>0.00187594563396095</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01388157200920453</v>
+        <v>0.01322359968738555</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0008724751460960023</v>
+        <v>0.0008727038643758454</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.005060351458852303</v>
+        <v>0.004996046676171657</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04426028010975492</v>
+        <v>0.0478453726699881</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02021996829786804</v>
+        <v>0.02367069739001754</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03206016862138501</v>
+        <v>0.03122741066413006</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02978426101804493</v>
+        <v>0.03125056678662196</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0111874373286873</v>
+        <v>0.01057630455194528</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01743514558981428</v>
+        <v>0.0167686936195287</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03290480757229735</v>
+        <v>0.03217768620362306</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01333924898297522</v>
+        <v>0.0119054686188392</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0190081683767238</v>
+        <v>0.01859627796461367</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.00274459444629337</v>
+        <v>0.00272069605971851</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002954969982663302</v>
+        <v>0.003004451254762102</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.006497627417191314</v>
+        <v>0.006105243361526514</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01153057722888401</v>
+        <v>0.01168982057116221</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.007058683813195313</v>
+        <v>0.005983832896064423</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01024419757268573</v>
+        <v>0.009002561673433619</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.00146662819240712</v>
+        <v>0.001411085448587861</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02435500536955795</v>
+        <v>0.02457012796189312</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02976180423059892</v>
+        <v>0.02985508746174523</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01739896887054428</v>
+        <v>0.01833294526962782</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03739930818182072</v>
+        <v>0.03630251746692183</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04444165884809945</v>
+        <v>0.04582525959261514</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03785713934282225</v>
+        <v>0.03217725861174951</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02532786261341064</v>
+        <v>0.02385183926848246</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02981529566293617</v>
+        <v>0.03093099897436539</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01784518255460713</v>
+        <v>0.0179135565163144</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01403049941554829</v>
+        <v>0.01346740858353063</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01096771747872438</v>
+        <v>0.009612780519978851</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2034482668058563</v>
+        <v>0.2013830971778081</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0143365132347013</v>
+        <v>0.01599422425638842</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.002519253797157815</v>
+        <v>0.002814638653616615</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1991634081195767</v>
+        <v>0.2024936718035227</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01811851209310777</v>
+        <v>0.01855804954103755</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.007995868070002422</v>
+        <v>0.007992879621626595</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2134942059485111</v>
+        <v>0.2144850344268274</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05398330696453495</v>
+        <v>0.05318423145366648</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04917611555832117</v>
+        <v>0.04571406549229355</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2985102181957314</v>
+        <v>0.2949580139413389</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04676113338527772</v>
+        <v>0.04859305004229012</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02495354969854444</v>
+        <v>0.02430201217568994</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2875763390717417</v>
+        <v>0.2918327819720697</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04491992505168135</v>
+        <v>0.0454495088186637</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02860941977051774</v>
+        <v>0.02819205546694228</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2767475119745366</v>
+        <v>0.2801008524692303</v>
       </c>
     </row>
     <row r="16">
@@ -1136,20 +1136,20 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02329364001922091</v>
+        <v>0.0274889054449011</v>
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>0.02229959338869459</v>
+        <v>0.02048042447626653</v>
       </c>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="n">
-        <v>0.01148640146156396</v>
+        <v>0.011971356656401</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01252264240679725</v>
+        <v>0.01204381122392112</v>
       </c>
       <c r="K18" s="5" t="inlineStr"/>
     </row>
@@ -1206,25 +1206,25 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01455934820265017</v>
+        <v>0.01444628713130536</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.003387110866420691</v>
+        <v>0.003402728346201509</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.003655828136906331</v>
+        <v>0.003654001069680046</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.001799938820400985</v>
+        <v>0.001797931233109308</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.003438528853553688</v>
+        <v>0.00184641043392681</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01134357375539374</v>
+        <v>0.01136301935840445</v>
       </c>
     </row>
     <row r="21">
@@ -1235,31 +1235,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02076366979314146</v>
+        <v>0.02333661318437343</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02451231729850252</v>
+        <v>0.02354110607743588</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05589883150892487</v>
+        <v>0.0553025398761549</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.0240901281042635</v>
+        <v>0.02421370612250161</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03162818297496005</v>
+        <v>0.03130517823778357</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.0374327475449376</v>
+        <v>0.03491513475041261</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.01551327452443711</v>
+        <v>0.01570413395496817</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.01895814478593127</v>
+        <v>0.01897886824058833</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03850343594794905</v>
+        <v>0.03637165184590654</v>
       </c>
     </row>
     <row r="22">
@@ -1309,31 +1309,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.006557569699323616</v>
+        <v>0.006226225133328765</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01085432983875732</v>
+        <v>0.01063714796105927</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01851769988144908</v>
+        <v>0.01815761108562996</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01179026738917405</v>
+        <v>0.01136327482837548</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01186700580792527</v>
+        <v>0.01186194367403129</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02611171171042945</v>
+        <v>0.02833404393283524</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01198693777672251</v>
+        <v>0.01208393497705409</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01322472604315264</v>
+        <v>0.01293119572142538</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0257211761911647</v>
+        <v>0.02625185589306929</v>
       </c>
     </row>
     <row r="24">
@@ -1344,31 +1344,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02978449227261015</v>
+        <v>0.02959827805385125</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03703597278026353</v>
+        <v>0.03723808484412294</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04755853247191987</v>
+        <v>0.04608578921644166</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03590078191602604</v>
+        <v>0.03507721137106917</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03684896099401865</v>
+        <v>0.03594186061143606</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.05784920705909977</v>
+        <v>0.05994234011335252</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02882207518017345</v>
+        <v>0.02741983609985523</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.03067084401641105</v>
+        <v>0.03032284260512678</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04728753995010691</v>
+        <v>0.04628507242623543</v>
       </c>
     </row>
     <row r="25">
@@ -1418,7 +1418,7 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01079186117713917</v>
+        <v>0.01090799560150913</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0</v>
@@ -1427,22 +1427,22 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.007883618060527266</v>
+        <v>0.007753050270287802</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.002413432567002819</v>
+        <v>0.002383642618601219</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.001310523726138846</v>
+        <v>0.001317723967934174</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01071383160014338</v>
+        <v>0.01114039229322957</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.001363258955144403</v>
+        <v>0.001366594024005963</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.001386535135211369</v>
+        <v>0.001789634490608073</v>
       </c>
     </row>
     <row r="27">
@@ -1453,31 +1453,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03096019198185129</v>
+        <v>0.03117888958442078</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.008695359140992835</v>
+        <v>0.007981992211063833</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.007733490448581563</v>
+        <v>0.008821867091000704</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02439148584192374</v>
+        <v>0.02491300585088091</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.01365558118202516</v>
+        <v>0.01402191591035105</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.01269681901331482</v>
+        <v>0.01355579264995354</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.02322435835728518</v>
+        <v>0.02344908055685849</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.008327062267461391</v>
+        <v>0.008405266292801004</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.007924119010117803</v>
+        <v>0.008334283019830937</v>
       </c>
     </row>
     <row r="28">
@@ -1527,31 +1527,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01429753941424679</v>
+        <v>0.01381634488042936</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.007423382084851362</v>
+        <v>0.007002341931683787</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.03402752290923115</v>
+        <v>0.03391116801670795</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.01275566377236005</v>
+        <v>0.01261682350624962</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.008419246789088832</v>
+        <v>0.008182719399912696</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.03471822163333301</v>
+        <v>0.03497164490229357</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.01401823320692411</v>
+        <v>0.01421893293507369</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.008406677494961762</v>
+        <v>0.008531376208667712</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.0358884110295991</v>
+        <v>0.03608834237308138</v>
       </c>
     </row>
     <row r="30">
@@ -1562,31 +1562,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.02359012662425734</v>
+        <v>0.0236648487505724</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.01486226919958985</v>
+        <v>0.0149959483126035</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.04765723345227278</v>
+        <v>0.04782606360207798</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.02135878461099495</v>
+        <v>0.02151756395934763</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.01559071244046518</v>
+        <v>0.01599089979352171</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.04909261917952298</v>
+        <v>0.04889300326992383</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.02065066394868495</v>
+        <v>0.02070663838609875</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.01378658593534357</v>
+        <v>0.01394003067940766</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.04566490188098222</v>
+        <v>0.0458993800567284</v>
       </c>
     </row>
     <row r="31">
@@ -1819,31 +1819,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3645</v>
+        <v>3683</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1679</v>
+        <v>1696</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3344</v>
+        <v>3668</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1020</v>
+        <v>1047</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>930</v>
+        <v>254</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4908</v>
+        <v>4808</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5953</v>
+        <v>6491</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3248</v>
+        <v>3738</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>11130</v>
+        <v>10410</v>
       </c>
     </row>
     <row r="7">
@@ -1854,31 +1854,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14245</v>
+        <v>13812</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>10217</v>
+        <v>10621</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15161</v>
+        <v>16587</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9097</v>
+        <v>10037</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>8473</v>
+        <v>8467</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>17081</v>
+        <v>16303</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>19468</v>
+        <v>19019</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>15029</v>
+        <v>15650</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>29145</v>
+        <v>28270</v>
       </c>
     </row>
     <row r="8">
@@ -1963,16 +1963,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7254</v>
+        <v>8114</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3239</v>
+        <v>3036</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3798</v>
+        <v>3931</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -1981,13 +1981,13 @@
         <v>981</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>13826</v>
+        <v>13170</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>5179</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="11">
@@ -1998,31 +1998,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>21778</v>
+        <v>23542</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10201</v>
+        <v>11942</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>16043</v>
+        <v>15626</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>15010</v>
+        <v>15749</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5837</v>
+        <v>5518</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>9120</v>
+        <v>8771</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>32773</v>
+        <v>32048</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>13689</v>
+        <v>12218</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>19454</v>
+        <v>19033</v>
       </c>
     </row>
     <row r="12">
@@ -2107,31 +2107,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>955</v>
+        <v>971</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2179</v>
+        <v>2048</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3932</v>
+        <v>3986</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>4618</v>
+        <v>3915</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6804</v>
+        <v>5979</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>960</v>
+        <v>924</v>
       </c>
     </row>
     <row r="15">
@@ -2142,31 +2142,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7765</v>
+        <v>7834</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9617</v>
+        <v>9647</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5543</v>
+        <v>5840</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>12544</v>
+        <v>12176</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>15155</v>
+        <v>15627</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>12732</v>
+        <v>10822</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>16571</v>
+        <v>15605</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>19802</v>
+        <v>20543</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>11686</v>
+        <v>11731</v>
       </c>
     </row>
     <row r="16">
@@ -2251,31 +2251,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5019</v>
+        <v>4817</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4090</v>
+        <v>3585</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>75269</v>
+        <v>74504</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5325</v>
+        <v>5941</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>980</v>
+        <v>1095</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>77133</v>
+        <v>78422</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>13211</v>
+        <v>13531</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>6092</v>
+        <v>6089</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>161668</v>
+        <v>162418</v>
       </c>
     </row>
     <row r="19">
@@ -2286,31 +2286,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>19309</v>
+        <v>19023</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>18338</v>
+        <v>17047</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>110438</v>
+        <v>109124</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>17370</v>
+        <v>18050</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>9706</v>
+        <v>9452</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>111373</v>
+        <v>113022</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>32753</v>
+        <v>33139</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>21796</v>
+        <v>21478</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>209566</v>
+        <v>212106</v>
       </c>
     </row>
     <row r="20">
@@ -2420,20 +2420,20 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>4715</v>
+        <v>5564</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="n">
-        <v>4897</v>
+        <v>4497</v>
       </c>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="n">
-        <v>4699</v>
+        <v>4897</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>5412</v>
+        <v>5205</v>
       </c>
       <c r="K23" s="6" t="inlineStr"/>
     </row>
@@ -2525,25 +2525,25 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>3831</v>
+        <v>3801</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>994</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1901</v>
+        <v>1021</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>6069</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="27">
@@ -2554,31 +2554,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5623</v>
+        <v>6320</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6716</v>
+        <v>6450</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>14708</v>
+        <v>14551</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>6701</v>
+        <v>6735</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>8824</v>
+        <v>8734</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>10179</v>
+        <v>9494</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>8516</v>
+        <v>8621</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>10483</v>
+        <v>10495</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>20601</v>
+        <v>19460</v>
       </c>
     </row>
     <row r="28">
@@ -2663,31 +2663,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>4020</v>
+        <v>3817</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>7194</v>
+        <v>7050</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>12125</v>
+        <v>11889</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>7502</v>
+        <v>7230</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>8234</v>
+        <v>8230</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>17997</v>
+        <v>19529</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>14975</v>
+        <v>15096</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>17941</v>
+        <v>17543</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>34569</v>
+        <v>35283</v>
       </c>
     </row>
     <row r="31">
@@ -2698,31 +2698,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>18258</v>
+        <v>18143</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>24547</v>
+        <v>24681</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>31140</v>
+        <v>30176</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>22843</v>
+        <v>22319</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>25568</v>
+        <v>24938</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>39872</v>
+        <v>41314</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>36006</v>
+        <v>34254</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>41609</v>
+        <v>41137</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>63555</v>
+        <v>62208</v>
       </c>
     </row>
     <row r="32">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>8027</v>
+        <v>8113</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>0</v>
@@ -2816,22 +2816,22 @@
         <v>0</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>6177</v>
+        <v>6075</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1983</v>
+        <v>1959</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>16363</v>
+        <v>17015</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>2178</v>
+        <v>2184</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>2225</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="35">
@@ -2842,31 +2842,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>23028</v>
+        <v>23191</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>6750</v>
+        <v>6196</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>6021</v>
+        <v>6869</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>19111</v>
+        <v>19520</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>11221</v>
+        <v>11522</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>10490</v>
+        <v>11199</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>35471</v>
+        <v>35814</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>13306</v>
+        <v>13431</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>12716</v>
+        <v>13374</v>
       </c>
     </row>
     <row r="36">
@@ -2951,31 +2951,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>46750</v>
+        <v>45177</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>25394</v>
+        <v>23954</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>115366</v>
+        <v>114972</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>43053</v>
+        <v>42584</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>29907</v>
+        <v>29067</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>122947</v>
+        <v>123845</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>93151</v>
+        <v>94485</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>58620</v>
+        <v>59490</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>248767</v>
+        <v>250152</v>
       </c>
     </row>
     <row r="39">
@@ -2986,31 +2986,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>77135</v>
+        <v>77380</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>50842</v>
+        <v>51299</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>161576</v>
+        <v>162149</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>72090</v>
+        <v>72626</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>55381</v>
+        <v>56803</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>173851</v>
+        <v>173144</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>137223</v>
+        <v>137595</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>96135</v>
+        <v>97205</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>316534</v>
+        <v>318159</v>
       </c>
     </row>
     <row r="40">
